--- a/notebooks/pics/Давление насыщения картинки.xlsx
+++ b/notebooks/pics/Давление насыщения картинки.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\uniflocPy\test\pics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\neftpy\notebooks\pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46F5934F-087F-46FC-A46F-78922E237935}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5A771E-F63D-488E-A6D6-784ABD944936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{62303E6E-2845-453B-B074-E3F24C38D929}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{62303E6E-2845-453B-B074-E3F24C38D929}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,44 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -599,97 +630,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4645558193945048E-3</c:v>
+                  <c:v>0.10341110499957931</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0509556078334687E-3</c:v>
+                  <c:v>0.10446665749936897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2672146347503424E-2</c:v>
+                  <c:v>0.10604998624905344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7742136853876728E-2</c:v>
+                  <c:v>0.10842497937358016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4840576450863606E-2</c:v>
+                  <c:v>0.11198746906037024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4779025970390412E-2</c:v>
+                  <c:v>0.11733120359055536</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8693743071612103E-2</c:v>
+                  <c:v>0.12534680538583304</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8175589976062698E-2</c:v>
+                  <c:v>0.13737020807874958</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5451915901160145E-2</c:v>
+                  <c:v>0.15540531211812436</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13364120871416235</c:v>
+                  <c:v>0.18245796817718654</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18710962999502492</c:v>
+                  <c:v>0.2230369522657798</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26197019597268123</c:v>
+                  <c:v>0.28390542839866972</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36678167542627182</c:v>
+                  <c:v>0.37520814259800456</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.51352710917745747</c:v>
+                  <c:v>0.51352710917745736</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.71898382478806711</c:v>
+                  <c:v>0.71898382478806677</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0066415795163832</c:v>
+                  <c:v>1.0066415795163828</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4093881317982844</c:v>
+                  <c:v>1.4093881317982837</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9732692812154295</c:v>
+                  <c:v>1.9732692812154287</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.762753260324565</c:v>
+                  <c:v>2.7627532603245641</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8681013534719444</c:v>
+                  <c:v>3.8681013534719426</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.4156874215302686</c:v>
+                  <c:v>5.4156874215302668</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.5824461583446707</c:v>
+                  <c:v>7.5824461583446681</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.616101940379414</c:v>
+                  <c:v>10.61610194037941</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.863491023209788</c:v>
+                  <c:v>14.863491023209781</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.810215146553336</c:v>
+                  <c:v>20.810215146553329</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>29.136160123459135</c:v>
+                  <c:v>29.136160123459121</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40.793226824493011</c:v>
+                  <c:v>40.793226824492997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57.114161499088112</c:v>
+                  <c:v>57.114161499088091</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>79.964927946943803</c:v>
+                  <c:v>79.964927946943774</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>111.9580421689638</c:v>
+                  <c:v>111.95804216896374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,97 +1106,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8262241860140065</c:v>
+                  <c:v>0.10390194534643311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0683482167297684</c:v>
+                  <c:v>0.10520291801964966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69230425572850141</c:v>
+                  <c:v>0.1071543770294745</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49222322955729653</c:v>
+                  <c:v>0.11008156554421175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38075449966081831</c:v>
+                  <c:v>0.11447234831631761</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31804910827699867</c:v>
+                  <c:v>0.12105852247447642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28497307427641955</c:v>
+                  <c:v>0.13093778371171463</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27224075269476083</c:v>
+                  <c:v>0.14575667556757196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27577153775063462</c:v>
+                  <c:v>0.16798501335135793</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29469718870351697</c:v>
+                  <c:v>0.20132752002703691</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33063143293379893</c:v>
+                  <c:v>0.25134128004055534</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38765903663848522</c:v>
+                  <c:v>0.32636192006083303</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4728626849564016</c:v>
+                  <c:v>0.43889288009124955</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5973823736129833</c:v>
+                  <c:v>0.59738237361298396</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.77810079531064347</c:v>
+                  <c:v>0.77810079531064436</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0400986983559364</c:v>
+                  <c:v>1.040098698355937</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4200106773117571</c:v>
+                  <c:v>1.420010677311758</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9702768824298462</c:v>
+                  <c:v>1.9702768824298473</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7639258886746876</c:v>
+                  <c:v>2.7639258886746889</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8987960340897696</c:v>
+                  <c:v>3.8987960340897732</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.4988788659654988</c:v>
+                  <c:v>5.4988788659655023</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.7087801647707304</c:v>
+                  <c:v>7.7087801647707366</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.675604149989416</c:v>
+                  <c:v>10.675604149989425</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.512114707069271</c:v>
+                  <c:v>14.512114707069285</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.237974066949423</c:v>
+                  <c:v>19.237974066949441</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24.704645107839657</c:v>
+                  <c:v>24.704645107839681</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.524815604466955</c:v>
+                  <c:v>30.524815604466969</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>36.044474404417997</c:v>
+                  <c:v>36.044474404418033</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40.403127647946455</c:v>
+                  <c:v>42.431167220110027</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42.709145005815749</c:v>
+                  <c:v>63.596100830165035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,94 +1824,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>6.4645558193945048E-3</c:v>
+                  <c:v>0.10341110499957931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0509556078334687E-3</c:v>
+                  <c:v>0.10446665749936897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2672146347503424E-2</c:v>
+                  <c:v>0.10604998624905344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7742136853876728E-2</c:v>
+                  <c:v>0.10842497937358016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4840576450863606E-2</c:v>
+                  <c:v>0.11198746906037024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4779025970390412E-2</c:v>
+                  <c:v>0.11733120359055536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8693743071612103E-2</c:v>
+                  <c:v>0.12534680538583304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8175589976062698E-2</c:v>
+                  <c:v>0.13737020807874958</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5451915901160145E-2</c:v>
+                  <c:v>0.15540531211812436</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13364120871416235</c:v>
+                  <c:v>0.18245796817718654</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18710962999502492</c:v>
+                  <c:v>0.2230369522657798</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26197019597268123</c:v>
+                  <c:v>0.28390542839866972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.36678167542627182</c:v>
+                  <c:v>0.37520814259800456</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.51352710917745747</c:v>
+                  <c:v>0.51352710917745736</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.71898382478806711</c:v>
+                  <c:v>0.71898382478806677</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0066415795163832</c:v>
+                  <c:v>1.0066415795163828</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4093881317982844</c:v>
+                  <c:v>1.4093881317982837</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9732692812154295</c:v>
+                  <c:v>1.9732692812154287</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.762753260324565</c:v>
+                  <c:v>2.7627532603245641</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8681013534719444</c:v>
+                  <c:v>3.8681013534719426</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4156874215302686</c:v>
+                  <c:v>5.4156874215302668</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.5824461583446707</c:v>
+                  <c:v>7.5824461583446681</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.616101940379414</c:v>
+                  <c:v>10.61610194037941</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.863491023209788</c:v>
+                  <c:v>14.863491023209781</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.810215146553336</c:v>
+                  <c:v>20.810215146553329</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.136160123459135</c:v>
+                  <c:v>29.136160123459121</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40.793226824493011</c:v>
+                  <c:v>40.793226824492997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57.114161499088112</c:v>
+                  <c:v>57.114161499088091</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>79.964927946943803</c:v>
+                  <c:v>79.964927946943774</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>111.9580421689638</c:v>
+                  <c:v>111.95804216896374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,94 +2690,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.8262241860140065</c:v>
+                  <c:v>0.10390194534643311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0683482167297684</c:v>
+                  <c:v>0.10520291801964966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69230425572850141</c:v>
+                  <c:v>0.1071543770294745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49222322955729653</c:v>
+                  <c:v>0.11008156554421175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38075449966081831</c:v>
+                  <c:v>0.11447234831631761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31804910827699867</c:v>
+                  <c:v>0.12105852247447642</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28497307427641955</c:v>
+                  <c:v>0.13093778371171463</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27224075269476083</c:v>
+                  <c:v>0.14575667556757196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27577153775063462</c:v>
+                  <c:v>0.16798501335135793</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29469718870351697</c:v>
+                  <c:v>0.20132752002703691</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33063143293379893</c:v>
+                  <c:v>0.25134128004055534</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38765903663848522</c:v>
+                  <c:v>0.32636192006083303</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4728626849564016</c:v>
+                  <c:v>0.43889288009124955</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5973823736129833</c:v>
+                  <c:v>0.59738237361298396</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.77810079531064347</c:v>
+                  <c:v>0.77810079531064436</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0400986983559364</c:v>
+                  <c:v>1.040098698355937</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4200106773117571</c:v>
+                  <c:v>1.420010677311758</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9702768824298462</c:v>
+                  <c:v>1.9702768824298473</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7639258886746876</c:v>
+                  <c:v>2.7639258886746889</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8987960340897696</c:v>
+                  <c:v>3.8987960340897732</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4988788659654988</c:v>
+                  <c:v>5.4988788659655023</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.7087801647707304</c:v>
+                  <c:v>7.7087801647707366</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.675604149989416</c:v>
+                  <c:v>10.675604149989425</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.512114707069271</c:v>
+                  <c:v>14.512114707069285</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.237974066949423</c:v>
+                  <c:v>19.237974066949441</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.704645107839657</c:v>
+                  <c:v>24.704645107839681</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.524815604466955</c:v>
+                  <c:v>30.524815604466969</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>36.044474404417997</c:v>
+                  <c:v>36.044474404418033</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.403127647946455</c:v>
+                  <c:v>42.431167220110027</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42.709145005815749</c:v>
+                  <c:v>63.596100830165035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3553,97 +3584,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8262241860140065</c:v>
+                  <c:v>0.10390194534643311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0683482167297684</c:v>
+                  <c:v>0.10520291801964966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69230425572850141</c:v>
+                  <c:v>0.1071543770294745</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49222322955729653</c:v>
+                  <c:v>0.11008156554421175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38075449966081831</c:v>
+                  <c:v>0.11447234831631761</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31804910827699867</c:v>
+                  <c:v>0.12105852247447642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28497307427641955</c:v>
+                  <c:v>0.13093778371171463</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27224075269476083</c:v>
+                  <c:v>0.14575667556757196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27577153775063462</c:v>
+                  <c:v>0.16798501335135793</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29469718870351697</c:v>
+                  <c:v>0.20132752002703691</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33063143293379893</c:v>
+                  <c:v>0.25134128004055534</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38765903663848522</c:v>
+                  <c:v>0.32636192006083303</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4728626849564016</c:v>
+                  <c:v>0.43889288009124955</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5973823736129833</c:v>
+                  <c:v>0.59738237361298396</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.77810079531064347</c:v>
+                  <c:v>0.77810079531064436</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0400986983559364</c:v>
+                  <c:v>1.040098698355937</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4200106773117571</c:v>
+                  <c:v>1.420010677311758</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9702768824298462</c:v>
+                  <c:v>1.9702768824298473</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7639258886746876</c:v>
+                  <c:v>2.7639258886746889</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8987960340897696</c:v>
+                  <c:v>3.8987960340897732</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.4988788659654988</c:v>
+                  <c:v>5.4988788659655023</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.7087801647707304</c:v>
+                  <c:v>7.7087801647707366</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.675604149989416</c:v>
+                  <c:v>10.675604149989425</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.512114707069271</c:v>
+                  <c:v>14.512114707069285</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.237974066949423</c:v>
+                  <c:v>19.237974066949441</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24.704645107839657</c:v>
+                  <c:v>24.704645107839681</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.524815604466955</c:v>
+                  <c:v>30.524815604466969</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>36.044474404417997</c:v>
+                  <c:v>36.044474404418033</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40.403127647946455</c:v>
+                  <c:v>42.431167220110027</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42.709145005815749</c:v>
+                  <c:v>63.596100830165035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5907,16 +5938,14 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="База насосов"/>
-      <sheetName val="Лист1"/>
+      <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
-      <definedName name="unf_Bubblepoint_Standing"/>
-      <definedName name="unf_Bubblepoint_Valko_McCainSI"/>
+      <definedName name="unf_pvt_pb_Standing_MPa"/>
+      <definedName name="unf_pvt_pb_Valko_McCain_MPa"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6222,8 +6251,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="D2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6388,16 +6417,16 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
-        <f>[1]!unf_Bubblepoint_Standing(F21,$F$15,$F$16,$F$17)</f>
-        <v>0</v>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">[1]!unf_pvt_pb_Standing_MPa(F21,$F$15,$F$16,$F$17)</f>
+        <v>0.1013</v>
       </c>
       <c r="H21">
         <v>0.1013</v>
       </c>
-      <c r="I21" t="e">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F21,$F$15,$F$16,$F$17)</f>
-        <v>#VALUE!</v>
+      <c r="I21" cm="1">
+        <f t="array" ref="I21">[1]!unf_pvt_pb_Valko_McCain_MPa(F21,$F$15,$F$16,$F$17)</f>
+        <v>0.1013</v>
       </c>
       <c r="J21">
         <v>0.1013</v>
@@ -6407,16 +6436,16 @@
       <c r="F22">
         <v>0.01</v>
       </c>
-      <c r="G22">
-        <f>[1]!unf_Bubblepoint_Standing(F22,$F$15,$F$16,$F$17)</f>
-        <v>6.4645558193945048E-3</v>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">[1]!unf_pvt_pb_Standing_MPa(F22,$F$15,$F$16,$F$17)</f>
+        <v>0.10341110499957931</v>
       </c>
       <c r="H22">
         <v>0.10341110499957931</v>
       </c>
-      <c r="I22">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F22,$F$15,$F$16,$F$17)</f>
-        <v>1.8262241860140065</v>
+      <c r="I22" cm="1">
+        <f t="array" ref="I22">[1]!unf_pvt_pb_Valko_McCain_MPa(F22,$F$15,$F$16,$F$17)</f>
+        <v>0.10390194534643311</v>
       </c>
       <c r="J22">
         <v>0.1039019453464331</v>
@@ -6427,16 +6456,16 @@
         <f t="shared" ref="F23:F51" si="2">F22*$D$21</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G23">
-        <f>[1]!unf_Bubblepoint_Standing(F23,$F$15,$F$16,$F$17)</f>
-        <v>9.0509556078334687E-3</v>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">[1]!unf_pvt_pb_Standing_MPa(F23,$F$15,$F$16,$F$17)</f>
+        <v>0.10446665749936897</v>
       </c>
       <c r="H23">
         <v>0.10446665749936897</v>
       </c>
-      <c r="I23">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F23,$F$15,$F$16,$F$17)</f>
-        <v>1.0683482167297684</v>
+      <c r="I23" cm="1">
+        <f t="array" ref="I23">[1]!unf_pvt_pb_Valko_McCain_MPa(F23,$F$15,$F$16,$F$17)</f>
+        <v>0.10520291801964966</v>
       </c>
       <c r="J23">
         <v>0.10520291801964966</v>
@@ -6447,16 +6476,16 @@
         <f t="shared" si="2"/>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="G24">
-        <f>[1]!unf_Bubblepoint_Standing(F24,$F$15,$F$16,$F$17)</f>
-        <v>1.2672146347503424E-2</v>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">[1]!unf_pvt_pb_Standing_MPa(F24,$F$15,$F$16,$F$17)</f>
+        <v>0.10604998624905344</v>
       </c>
       <c r="H24">
         <v>0.10604998624905344</v>
       </c>
-      <c r="I24">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F24,$F$15,$F$16,$F$17)</f>
-        <v>0.69230425572850141</v>
+      <c r="I24" cm="1">
+        <f t="array" ref="I24">[1]!unf_pvt_pb_Valko_McCain_MPa(F24,$F$15,$F$16,$F$17)</f>
+        <v>0.1071543770294745</v>
       </c>
       <c r="J24">
         <v>0.10715437702947449</v>
@@ -6467,16 +6496,16 @@
         <f t="shared" si="2"/>
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="G25">
-        <f>[1]!unf_Bubblepoint_Standing(F25,$F$15,$F$16,$F$17)</f>
-        <v>1.7742136853876728E-2</v>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">[1]!unf_pvt_pb_Standing_MPa(F25,$F$15,$F$16,$F$17)</f>
+        <v>0.10842497937358016</v>
       </c>
       <c r="H25">
         <v>0.10842497937358017</v>
       </c>
-      <c r="I25">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F25,$F$15,$F$16,$F$17)</f>
-        <v>0.49222322955729653</v>
+      <c r="I25" cm="1">
+        <f t="array" ref="I25">[1]!unf_pvt_pb_Valko_McCain_MPa(F25,$F$15,$F$16,$F$17)</f>
+        <v>0.11008156554421175</v>
       </c>
       <c r="J25">
         <v>0.11008156554421174</v>
@@ -6487,16 +6516,16 @@
         <f t="shared" si="2"/>
         <v>5.0625000000000003E-2</v>
       </c>
-      <c r="G26">
-        <f>[1]!unf_Bubblepoint_Standing(F26,$F$15,$F$16,$F$17)</f>
-        <v>2.4840576450863606E-2</v>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">[1]!unf_pvt_pb_Standing_MPa(F26,$F$15,$F$16,$F$17)</f>
+        <v>0.11198746906037024</v>
       </c>
       <c r="H26">
         <v>0.11198746906037024</v>
       </c>
-      <c r="I26">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F26,$F$15,$F$16,$F$17)</f>
-        <v>0.38075449966081831</v>
+      <c r="I26" cm="1">
+        <f t="array" ref="I26">[1]!unf_pvt_pb_Valko_McCain_MPa(F26,$F$15,$F$16,$F$17)</f>
+        <v>0.11447234831631761</v>
       </c>
       <c r="J26">
         <v>0.1144723483163176</v>
@@ -6507,16 +6536,16 @@
         <f t="shared" si="2"/>
         <v>7.5937500000000005E-2</v>
       </c>
-      <c r="G27">
-        <f>[1]!unf_Bubblepoint_Standing(F27,$F$15,$F$16,$F$17)</f>
-        <v>3.4779025970390412E-2</v>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">[1]!unf_pvt_pb_Standing_MPa(F27,$F$15,$F$16,$F$17)</f>
+        <v>0.11733120359055536</v>
       </c>
       <c r="H27">
         <v>0.11733120359055538</v>
       </c>
-      <c r="I27">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F27,$F$15,$F$16,$F$17)</f>
-        <v>0.31804910827699867</v>
+      <c r="I27" cm="1">
+        <f t="array" ref="I27">[1]!unf_pvt_pb_Valko_McCain_MPa(F27,$F$15,$F$16,$F$17)</f>
+        <v>0.12105852247447642</v>
       </c>
       <c r="J27">
         <v>0.1210585224744764</v>
@@ -6527,16 +6556,16 @@
         <f t="shared" si="2"/>
         <v>0.11390625000000001</v>
       </c>
-      <c r="G28">
-        <f>[1]!unf_Bubblepoint_Standing(F28,$F$15,$F$16,$F$17)</f>
-        <v>4.8693743071612103E-2</v>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">[1]!unf_pvt_pb_Standing_MPa(F28,$F$15,$F$16,$F$17)</f>
+        <v>0.12534680538583304</v>
       </c>
       <c r="H28">
         <v>0.12534680538583307</v>
       </c>
-      <c r="I28">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F28,$F$15,$F$16,$F$17)</f>
-        <v>0.28497307427641955</v>
+      <c r="I28" cm="1">
+        <f t="array" ref="I28">[1]!unf_pvt_pb_Valko_McCain_MPa(F28,$F$15,$F$16,$F$17)</f>
+        <v>0.13093778371171463</v>
       </c>
       <c r="J28">
         <v>0.13093778371171461</v>
@@ -6547,16 +6576,16 @@
         <f t="shared" si="2"/>
         <v>0.17085937500000004</v>
       </c>
-      <c r="G29">
-        <f>[1]!unf_Bubblepoint_Standing(F29,$F$15,$F$16,$F$17)</f>
-        <v>6.8175589976062698E-2</v>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">[1]!unf_pvt_pb_Standing_MPa(F29,$F$15,$F$16,$F$17)</f>
+        <v>0.13737020807874958</v>
       </c>
       <c r="H29">
         <v>0.13737020807874958</v>
       </c>
-      <c r="I29">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F29,$F$15,$F$16,$F$17)</f>
-        <v>0.27224075269476083</v>
+      <c r="I29" cm="1">
+        <f t="array" ref="I29">[1]!unf_pvt_pb_Valko_McCain_MPa(F29,$F$15,$F$16,$F$17)</f>
+        <v>0.14575667556757196</v>
       </c>
       <c r="J29">
         <v>0.14575667556757191</v>
@@ -6567,16 +6596,16 @@
         <f t="shared" si="2"/>
         <v>0.25628906250000005</v>
       </c>
-      <c r="G30">
-        <f>[1]!unf_Bubblepoint_Standing(F30,$F$15,$F$16,$F$17)</f>
-        <v>9.5451915901160145E-2</v>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">[1]!unf_pvt_pb_Standing_MPa(F30,$F$15,$F$16,$F$17)</f>
+        <v>0.15540531211812436</v>
       </c>
       <c r="H30">
         <v>0.15540531211812439</v>
       </c>
-      <c r="I30">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F30,$F$15,$F$16,$F$17)</f>
-        <v>0.27577153775063462</v>
+      <c r="I30" cm="1">
+        <f t="array" ref="I30">[1]!unf_pvt_pb_Valko_McCain_MPa(F30,$F$15,$F$16,$F$17)</f>
+        <v>0.16798501335135793</v>
       </c>
       <c r="J30">
         <v>0.16798501335135785</v>
@@ -6587,16 +6616,16 @@
         <f t="shared" si="2"/>
         <v>0.38443359375000008</v>
       </c>
-      <c r="G31">
-        <f>[1]!unf_Bubblepoint_Standing(F31,$F$15,$F$16,$F$17)</f>
-        <v>0.13364120871416235</v>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">[1]!unf_pvt_pb_Standing_MPa(F31,$F$15,$F$16,$F$17)</f>
+        <v>0.18245796817718654</v>
       </c>
       <c r="H31">
         <v>0.18245796817718657</v>
       </c>
-      <c r="I31">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F31,$F$15,$F$16,$F$17)</f>
-        <v>0.29469718870351697</v>
+      <c r="I31" cm="1">
+        <f t="array" ref="I31">[1]!unf_pvt_pb_Valko_McCain_MPa(F31,$F$15,$F$16,$F$17)</f>
+        <v>0.20132752002703691</v>
       </c>
       <c r="J31">
         <v>0.2013275200270368</v>
@@ -6607,16 +6636,16 @@
         <f t="shared" si="2"/>
         <v>0.57665039062500012</v>
       </c>
-      <c r="G32">
-        <f>[1]!unf_Bubblepoint_Standing(F32,$F$15,$F$16,$F$17)</f>
-        <v>0.18710962999502492</v>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">[1]!unf_pvt_pb_Standing_MPa(F32,$F$15,$F$16,$F$17)</f>
+        <v>0.2230369522657798</v>
       </c>
       <c r="H32">
         <v>0.22303695226577985</v>
       </c>
-      <c r="I32">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F32,$F$15,$F$16,$F$17)</f>
-        <v>0.33063143293379893</v>
+      <c r="I32" cm="1">
+        <f t="array" ref="I32">[1]!unf_pvt_pb_Valko_McCain_MPa(F32,$F$15,$F$16,$F$17)</f>
+        <v>0.25134128004055534</v>
       </c>
       <c r="J32">
         <v>0.25134128004055517</v>
@@ -6627,16 +6656,16 @@
         <f t="shared" si="2"/>
         <v>0.86497558593750012</v>
       </c>
-      <c r="G33">
-        <f>[1]!unf_Bubblepoint_Standing(F33,$F$15,$F$16,$F$17)</f>
-        <v>0.26197019597268123</v>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">[1]!unf_pvt_pb_Standing_MPa(F33,$F$15,$F$16,$F$17)</f>
+        <v>0.28390542839866972</v>
       </c>
       <c r="H33">
         <v>0.28390542839866978</v>
       </c>
-      <c r="I33">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F33,$F$15,$F$16,$F$17)</f>
-        <v>0.38765903663848522</v>
+      <c r="I33" cm="1">
+        <f t="array" ref="I33">[1]!unf_pvt_pb_Valko_McCain_MPa(F33,$F$15,$F$16,$F$17)</f>
+        <v>0.32636192006083303</v>
       </c>
       <c r="J33">
         <v>0.32636192006083276</v>
@@ -6647,16 +6676,16 @@
         <f t="shared" si="2"/>
         <v>1.2974633789062502</v>
       </c>
-      <c r="G34">
-        <f>[1]!unf_Bubblepoint_Standing(F34,$F$15,$F$16,$F$17)</f>
-        <v>0.36678167542627182</v>
+      <c r="G34" cm="1">
+        <f t="array" ref="G34">[1]!unf_pvt_pb_Standing_MPa(F34,$F$15,$F$16,$F$17)</f>
+        <v>0.37520814259800456</v>
       </c>
       <c r="H34">
         <v>0.37520814259800467</v>
       </c>
-      <c r="I34">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F34,$F$15,$F$16,$F$17)</f>
-        <v>0.4728626849564016</v>
+      <c r="I34" cm="1">
+        <f t="array" ref="I34">[1]!unf_pvt_pb_Valko_McCain_MPa(F34,$F$15,$F$16,$F$17)</f>
+        <v>0.43889288009124955</v>
       </c>
       <c r="J34">
         <v>0.43889288009124916</v>
@@ -6667,16 +6696,16 @@
         <f t="shared" si="2"/>
         <v>1.9461950683593754</v>
       </c>
-      <c r="G35">
-        <f>[1]!unf_Bubblepoint_Standing(F35,$F$15,$F$16,$F$17)</f>
-        <v>0.51352710917745747</v>
+      <c r="G35" cm="1">
+        <f t="array" ref="G35">[1]!unf_pvt_pb_Standing_MPa(F35,$F$15,$F$16,$F$17)</f>
+        <v>0.51352710917745736</v>
       </c>
       <c r="H35">
         <v>0.51352710917745747</v>
       </c>
-      <c r="I35">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F35,$F$15,$F$16,$F$17)</f>
-        <v>0.5973823736129833</v>
+      <c r="I35" cm="1">
+        <f t="array" ref="I35">[1]!unf_pvt_pb_Valko_McCain_MPa(F35,$F$15,$F$16,$F$17)</f>
+        <v>0.59738237361298396</v>
       </c>
       <c r="J35">
         <v>0.5973823736129833</v>
@@ -6687,16 +6716,16 @@
         <f t="shared" si="2"/>
         <v>2.9192926025390631</v>
       </c>
-      <c r="G36">
-        <f>[1]!unf_Bubblepoint_Standing(F36,$F$15,$F$16,$F$17)</f>
-        <v>0.71898382478806711</v>
+      <c r="G36" cm="1">
+        <f t="array" ref="G36">[1]!unf_pvt_pb_Standing_MPa(F36,$F$15,$F$16,$F$17)</f>
+        <v>0.71898382478806677</v>
       </c>
       <c r="H36">
         <v>0.71898382478806711</v>
       </c>
-      <c r="I36">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F36,$F$15,$F$16,$F$17)</f>
-        <v>0.77810079531064347</v>
+      <c r="I36" cm="1">
+        <f t="array" ref="I36">[1]!unf_pvt_pb_Valko_McCain_MPa(F36,$F$15,$F$16,$F$17)</f>
+        <v>0.77810079531064436</v>
       </c>
       <c r="J36">
         <v>0.77810079531064347</v>
@@ -6707,16 +6736,16 @@
         <f t="shared" si="2"/>
         <v>4.3789389038085949</v>
       </c>
-      <c r="G37">
-        <f>[1]!unf_Bubblepoint_Standing(F37,$F$15,$F$16,$F$17)</f>
-        <v>1.0066415795163832</v>
+      <c r="G37" cm="1">
+        <f t="array" ref="G37">[1]!unf_pvt_pb_Standing_MPa(F37,$F$15,$F$16,$F$17)</f>
+        <v>1.0066415795163828</v>
       </c>
       <c r="H37">
         <v>1.0066415795163832</v>
       </c>
-      <c r="I37">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F37,$F$15,$F$16,$F$17)</f>
-        <v>1.0400986983559364</v>
+      <c r="I37" cm="1">
+        <f t="array" ref="I37">[1]!unf_pvt_pb_Valko_McCain_MPa(F37,$F$15,$F$16,$F$17)</f>
+        <v>1.040098698355937</v>
       </c>
       <c r="J37">
         <v>1.0400986983559364</v>
@@ -6727,16 +6756,16 @@
         <f t="shared" si="2"/>
         <v>6.5684083557128918</v>
       </c>
-      <c r="G38">
-        <f>[1]!unf_Bubblepoint_Standing(F38,$F$15,$F$16,$F$17)</f>
-        <v>1.4093881317982844</v>
+      <c r="G38" cm="1">
+        <f t="array" ref="G38">[1]!unf_pvt_pb_Standing_MPa(F38,$F$15,$F$16,$F$17)</f>
+        <v>1.4093881317982837</v>
       </c>
       <c r="H38">
         <v>1.4093881317982844</v>
       </c>
-      <c r="I38">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F38,$F$15,$F$16,$F$17)</f>
-        <v>1.4200106773117571</v>
+      <c r="I38" cm="1">
+        <f t="array" ref="I38">[1]!unf_pvt_pb_Valko_McCain_MPa(F38,$F$15,$F$16,$F$17)</f>
+        <v>1.420010677311758</v>
       </c>
       <c r="J38">
         <v>1.4200106773117571</v>
@@ -6747,16 +6776,16 @@
         <f t="shared" si="2"/>
         <v>9.8526125335693386</v>
       </c>
-      <c r="G39">
-        <f>[1]!unf_Bubblepoint_Standing(F39,$F$15,$F$16,$F$17)</f>
-        <v>1.9732692812154295</v>
+      <c r="G39" cm="1">
+        <f t="array" ref="G39">[1]!unf_pvt_pb_Standing_MPa(F39,$F$15,$F$16,$F$17)</f>
+        <v>1.9732692812154287</v>
       </c>
       <c r="H39">
         <v>1.9732692812154295</v>
       </c>
-      <c r="I39">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F39,$F$15,$F$16,$F$17)</f>
-        <v>1.9702768824298462</v>
+      <c r="I39" cm="1">
+        <f t="array" ref="I39">[1]!unf_pvt_pb_Valko_McCain_MPa(F39,$F$15,$F$16,$F$17)</f>
+        <v>1.9702768824298473</v>
       </c>
       <c r="J39">
         <v>1.9702768824298462</v>
@@ -6767,16 +6796,16 @@
         <f t="shared" si="2"/>
         <v>14.778918800354008</v>
       </c>
-      <c r="G40">
-        <f>[1]!unf_Bubblepoint_Standing(F40,$F$15,$F$16,$F$17)</f>
-        <v>2.762753260324565</v>
+      <c r="G40" cm="1">
+        <f t="array" ref="G40">[1]!unf_pvt_pb_Standing_MPa(F40,$F$15,$F$16,$F$17)</f>
+        <v>2.7627532603245641</v>
       </c>
       <c r="H40">
         <v>2.762753260324565</v>
       </c>
-      <c r="I40">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F40,$F$15,$F$16,$F$17)</f>
-        <v>2.7639258886746876</v>
+      <c r="I40" cm="1">
+        <f t="array" ref="I40">[1]!unf_pvt_pb_Valko_McCain_MPa(F40,$F$15,$F$16,$F$17)</f>
+        <v>2.7639258886746889</v>
       </c>
       <c r="J40">
         <v>2.7639258886746876</v>
@@ -6787,16 +6816,16 @@
         <f t="shared" si="2"/>
         <v>22.168378200531013</v>
       </c>
-      <c r="G41">
-        <f>[1]!unf_Bubblepoint_Standing(F41,$F$15,$F$16,$F$17)</f>
-        <v>3.8681013534719444</v>
+      <c r="G41" cm="1">
+        <f t="array" ref="G41">[1]!unf_pvt_pb_Standing_MPa(F41,$F$15,$F$16,$F$17)</f>
+        <v>3.8681013534719426</v>
       </c>
       <c r="H41">
         <v>3.8681013534719444</v>
       </c>
-      <c r="I41">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F41,$F$15,$F$16,$F$17)</f>
-        <v>3.8987960340897696</v>
+      <c r="I41" cm="1">
+        <f t="array" ref="I41">[1]!unf_pvt_pb_Valko_McCain_MPa(F41,$F$15,$F$16,$F$17)</f>
+        <v>3.8987960340897732</v>
       </c>
       <c r="J41">
         <v>3.8987960340897696</v>
@@ -6807,16 +6836,16 @@
         <f t="shared" si="2"/>
         <v>33.252567300796521</v>
       </c>
-      <c r="G42">
-        <f>[1]!unf_Bubblepoint_Standing(F42,$F$15,$F$16,$F$17)</f>
-        <v>5.4156874215302686</v>
+      <c r="G42" cm="1">
+        <f t="array" ref="G42">[1]!unf_pvt_pb_Standing_MPa(F42,$F$15,$F$16,$F$17)</f>
+        <v>5.4156874215302668</v>
       </c>
       <c r="H42">
         <v>5.4156874215302686</v>
       </c>
-      <c r="I42">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F42,$F$15,$F$16,$F$17)</f>
-        <v>5.4988788659654988</v>
+      <c r="I42" cm="1">
+        <f t="array" ref="I42">[1]!unf_pvt_pb_Valko_McCain_MPa(F42,$F$15,$F$16,$F$17)</f>
+        <v>5.4988788659655023</v>
       </c>
       <c r="J42">
         <v>5.4988788659654988</v>
@@ -6827,16 +6856,16 @@
         <f t="shared" si="2"/>
         <v>49.878850951194778</v>
       </c>
-      <c r="G43">
-        <f>[1]!unf_Bubblepoint_Standing(F43,$F$15,$F$16,$F$17)</f>
-        <v>7.5824461583446707</v>
+      <c r="G43" cm="1">
+        <f t="array" ref="G43">[1]!unf_pvt_pb_Standing_MPa(F43,$F$15,$F$16,$F$17)</f>
+        <v>7.5824461583446681</v>
       </c>
       <c r="H43">
         <v>7.5824461583446707</v>
       </c>
-      <c r="I43">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F43,$F$15,$F$16,$F$17)</f>
-        <v>7.7087801647707304</v>
+      <c r="I43" cm="1">
+        <f t="array" ref="I43">[1]!unf_pvt_pb_Valko_McCain_MPa(F43,$F$15,$F$16,$F$17)</f>
+        <v>7.7087801647707366</v>
       </c>
       <c r="J43">
         <v>7.7087801647707304</v>
@@ -6847,16 +6876,16 @@
         <f t="shared" si="2"/>
         <v>74.818276426792167</v>
       </c>
-      <c r="G44">
-        <f>[1]!unf_Bubblepoint_Standing(F44,$F$15,$F$16,$F$17)</f>
-        <v>10.616101940379414</v>
+      <c r="G44" cm="1">
+        <f t="array" ref="G44">[1]!unf_pvt_pb_Standing_MPa(F44,$F$15,$F$16,$F$17)</f>
+        <v>10.61610194037941</v>
       </c>
       <c r="H44">
         <v>10.616101940379414</v>
       </c>
-      <c r="I44">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F44,$F$15,$F$16,$F$17)</f>
-        <v>10.675604149989416</v>
+      <c r="I44" cm="1">
+        <f t="array" ref="I44">[1]!unf_pvt_pb_Valko_McCain_MPa(F44,$F$15,$F$16,$F$17)</f>
+        <v>10.675604149989425</v>
       </c>
       <c r="J44">
         <v>10.675604149989416</v>
@@ -6867,16 +6896,16 @@
         <f t="shared" si="2"/>
         <v>112.22741464018824</v>
       </c>
-      <c r="G45">
-        <f>[1]!unf_Bubblepoint_Standing(F45,$F$15,$F$16,$F$17)</f>
-        <v>14.863491023209788</v>
+      <c r="G45" cm="1">
+        <f t="array" ref="G45">[1]!unf_pvt_pb_Standing_MPa(F45,$F$15,$F$16,$F$17)</f>
+        <v>14.863491023209781</v>
       </c>
       <c r="H45">
         <v>14.863491023209788</v>
       </c>
-      <c r="I45">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F45,$F$15,$F$16,$F$17)</f>
-        <v>14.512114707069271</v>
+      <c r="I45" cm="1">
+        <f t="array" ref="I45">[1]!unf_pvt_pb_Valko_McCain_MPa(F45,$F$15,$F$16,$F$17)</f>
+        <v>14.512114707069285</v>
       </c>
       <c r="J45">
         <v>14.512114707069271</v>
@@ -6887,16 +6916,16 @@
         <f t="shared" si="2"/>
         <v>168.34112196028235</v>
       </c>
-      <c r="G46">
-        <f>[1]!unf_Bubblepoint_Standing(F46,$F$15,$F$16,$F$17)</f>
-        <v>20.810215146553336</v>
+      <c r="G46" cm="1">
+        <f t="array" ref="G46">[1]!unf_pvt_pb_Standing_MPa(F46,$F$15,$F$16,$F$17)</f>
+        <v>20.810215146553329</v>
       </c>
       <c r="H46">
         <v>20.810215146553336</v>
       </c>
-      <c r="I46">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F46,$F$15,$F$16,$F$17)</f>
-        <v>19.237974066949423</v>
+      <c r="I46" cm="1">
+        <f t="array" ref="I46">[1]!unf_pvt_pb_Valko_McCain_MPa(F46,$F$15,$F$16,$F$17)</f>
+        <v>19.237974066949441</v>
       </c>
       <c r="J46">
         <v>19.237974066949423</v>
@@ -6907,16 +6936,16 @@
         <f t="shared" si="2"/>
         <v>252.51168294042353</v>
       </c>
-      <c r="G47">
-        <f>[1]!unf_Bubblepoint_Standing(F47,$F$15,$F$16,$F$17)</f>
-        <v>29.136160123459135</v>
+      <c r="G47" cm="1">
+        <f t="array" ref="G47">[1]!unf_pvt_pb_Standing_MPa(F47,$F$15,$F$16,$F$17)</f>
+        <v>29.136160123459121</v>
       </c>
       <c r="H47">
         <v>29.136160123459135</v>
       </c>
-      <c r="I47">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F47,$F$15,$F$16,$F$17)</f>
-        <v>24.704645107839657</v>
+      <c r="I47" cm="1">
+        <f t="array" ref="I47">[1]!unf_pvt_pb_Valko_McCain_MPa(F47,$F$15,$F$16,$F$17)</f>
+        <v>24.704645107839681</v>
       </c>
       <c r="J47">
         <v>24.704645107839657</v>
@@ -6927,16 +6956,16 @@
         <f t="shared" si="2"/>
         <v>378.7675244106353</v>
       </c>
-      <c r="G48">
-        <f>[1]!unf_Bubblepoint_Standing(F48,$F$15,$F$16,$F$17)</f>
-        <v>40.793226824493011</v>
+      <c r="G48" cm="1">
+        <f t="array" ref="G48">[1]!unf_pvt_pb_Standing_MPa(F48,$F$15,$F$16,$F$17)</f>
+        <v>40.793226824492997</v>
       </c>
       <c r="H48">
         <v>40.793226824493011</v>
       </c>
-      <c r="I48">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F48,$F$15,$F$16,$F$17)</f>
-        <v>30.524815604466955</v>
+      <c r="I48" cm="1">
+        <f t="array" ref="I48">[1]!unf_pvt_pb_Valko_McCain_MPa(F48,$F$15,$F$16,$F$17)</f>
+        <v>30.524815604466969</v>
       </c>
       <c r="J48">
         <v>30.524815604466955</v>
@@ -6947,16 +6976,16 @@
         <f t="shared" si="2"/>
         <v>568.15128661595293</v>
       </c>
-      <c r="G49">
-        <f>[1]!unf_Bubblepoint_Standing(F49,$F$15,$F$16,$F$17)</f>
-        <v>57.114161499088112</v>
+      <c r="G49" cm="1">
+        <f t="array" ref="G49">[1]!unf_pvt_pb_Standing_MPa(F49,$F$15,$F$16,$F$17)</f>
+        <v>57.114161499088091</v>
       </c>
       <c r="H49">
         <v>57.114161499088112</v>
       </c>
-      <c r="I49">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F49,$F$15,$F$16,$F$17)</f>
-        <v>36.044474404417997</v>
+      <c r="I49" cm="1">
+        <f t="array" ref="I49">[1]!unf_pvt_pb_Valko_McCain_MPa(F49,$F$15,$F$16,$F$17)</f>
+        <v>36.044474404418033</v>
       </c>
       <c r="J49">
         <v>36.044474404417997</v>
@@ -6967,16 +6996,16 @@
         <f t="shared" si="2"/>
         <v>852.22692992392945</v>
       </c>
-      <c r="G50">
-        <f>[1]!unf_Bubblepoint_Standing(F50,$F$15,$F$16,$F$17)</f>
-        <v>79.964927946943803</v>
+      <c r="G50" cm="1">
+        <f t="array" ref="G50">[1]!unf_pvt_pb_Standing_MPa(F50,$F$15,$F$16,$F$17)</f>
+        <v>79.964927946943774</v>
       </c>
       <c r="H50">
         <v>79.964927946943803</v>
       </c>
-      <c r="I50">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F50,$F$15,$F$16,$F$17)</f>
-        <v>40.403127647946455</v>
+      <c r="I50" cm="1">
+        <f t="array" ref="I50">[1]!unf_pvt_pb_Valko_McCain_MPa(F50,$F$15,$F$16,$F$17)</f>
+        <v>42.431167220110027</v>
       </c>
       <c r="J50">
         <v>42.431167220110012</v>
@@ -6987,16 +7016,16 @@
         <f t="shared" si="2"/>
         <v>1278.3403948858941</v>
       </c>
-      <c r="G51">
-        <f>[1]!unf_Bubblepoint_Standing(F51,$F$15,$F$16,$F$17)</f>
-        <v>111.9580421689638</v>
+      <c r="G51" cm="1">
+        <f t="array" ref="G51">[1]!unf_pvt_pb_Standing_MPa(F51,$F$15,$F$16,$F$17)</f>
+        <v>111.95804216896374</v>
       </c>
       <c r="H51">
         <v>111.9580421689638</v>
       </c>
-      <c r="I51">
-        <f>[1]!unf_Bubblepoint_Valko_McCainSI(F51,$F$15,$F$16,$F$17)</f>
-        <v>42.709145005815749</v>
+      <c r="I51" cm="1">
+        <f t="array" ref="I51">[1]!unf_pvt_pb_Valko_McCain_MPa(F51,$F$15,$F$16,$F$17)</f>
+        <v>63.596100830165035</v>
       </c>
       <c r="J51">
         <v>63.596100830165014</v>
